--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProjects\Selenium_Python_Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26475345-30FA-4DFB-991F-DFD69D9A06EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA43ACA-B157-44D3-A4F0-6F15A7BCEE6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HomePage" sheetId="1" r:id="rId1"/>
-    <sheet name="FormPage" sheetId="3" r:id="rId2"/>
-    <sheet name="EndToEnd" sheetId="2" r:id="rId3"/>
+    <sheet name="LoginModule" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,96 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>TestCaseName</t>
   </si>
   <si>
-    <t>First_Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>Execute</t>
   </si>
   <si>
-    <t>test_formsubmission</t>
-  </si>
-  <si>
-    <t>Sandy</t>
-  </si>
-  <si>
-    <t>sandy@email.com</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Prady</t>
-  </si>
-  <si>
-    <t>prady@email.com</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Samu</t>
-  </si>
-  <si>
-    <t>samu@email.com</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>test_form</t>
-  </si>
-  <si>
-    <t>xxxxx</t>
-  </si>
-  <si>
-    <t>yyyy</t>
-  </si>
-  <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
-    <t>bbbb</t>
-  </si>
-  <si>
-    <t>cccc</t>
-  </si>
-  <si>
-    <t>DeliveryLocation</t>
-  </si>
-  <si>
-    <t>test_e2e</t>
-  </si>
-  <si>
-    <t>Ind</t>
-  </si>
-  <si>
-    <t>test_formstests</t>
-  </si>
-  <si>
-    <t>Date_Of_Birth</t>
-  </si>
-  <si>
-    <t>05/15/1985</t>
-  </si>
-  <si>
-    <t>10/05/1986</t>
-  </si>
-  <si>
-    <t>06/11/2015</t>
+    <t>test_LoginTest</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Pradyumna</t>
+  </si>
+  <si>
+    <t>mercury</t>
+  </si>
+  <si>
+    <t>UserName</t>
   </si>
 </sst>
 </file>
@@ -472,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,343 +417,64 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD18C4D-91BF-4707-96FA-9340AC64A3C2}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCBFA57-C02F-4558-BA8C-3919D2C34A9E}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProjects\Selenium_Python_Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA43ACA-B157-44D3-A4F0-6F15A7BCEE6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB1F940-BC46-4008-9905-328100499F6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginModule" sheetId="1" r:id="rId1"/>
+    <sheet name="BookingModule" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -49,6 +50,57 @@
   </si>
   <si>
     <t>UserName</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>test_flightbooking</t>
+  </si>
+  <si>
+    <t>No_of_Passengers</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Departing_From</t>
+  </si>
+  <si>
+    <t>Departing_Day</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Passenger_FirstName</t>
+  </si>
+  <si>
+    <t>Passenger_LastName</t>
+  </si>
+  <si>
+    <t>CreditCard_No</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>Samrudh</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandhya </t>
   </si>
 </sst>
 </file>
@@ -407,7 +459,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -470,11 +522,167 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18652895-FFE4-4B1F-AEC1-D527729E879E}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProjects\Selenium_Python_Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB1F940-BC46-4008-9905-328100499F6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02167E27-43D9-4D56-BA0B-19C2A9B86EAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProjects\Selenium_Python_Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02167E27-43D9-4D56-BA0B-19C2A9B86EAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55700D2-91A3-4D53-B61A-90078747AB64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,13 +488,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -536,7 +536,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,7 +614,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
